--- a/PCM_DB.xlsx
+++ b/PCM_DB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>샘플명</t>
   </si>
@@ -170,6 +170,66 @@
   </si>
   <si>
     <t>GD0668</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VD0620</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>292c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10B 7/8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5GY 7/8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHITE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2Y 7.8/0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10YR 7/8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>117/198/199</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/66/53</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-1227</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-4202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HJWA4D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREEN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1656,6 +1717,531 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="9">
+        <v>36.29</v>
+      </c>
+      <c r="C28" s="9">
+        <v>-2.12</v>
+      </c>
+      <c r="D28" s="9">
+        <v>-7.31</v>
+      </c>
+      <c r="E28" s="9">
+        <v>50.7</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>29.55</v>
+      </c>
+      <c r="I28" s="9">
+        <v>15.02</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="7">
+        <v>30.29</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-8.3800000000000008</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>47.4</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5.19</v>
+      </c>
+      <c r="I29" s="7">
+        <v>24.38</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="9">
+        <v>73.88</v>
+      </c>
+      <c r="C30" s="9">
+        <v>-13.56</v>
+      </c>
+      <c r="D30" s="9">
+        <v>-23.5</v>
+      </c>
+      <c r="E30" s="9">
+        <v>94.43</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>5.29</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="7">
+        <v>71.64</v>
+      </c>
+      <c r="C31" s="7">
+        <v>-14.29</v>
+      </c>
+      <c r="D31" s="7">
+        <v>-27.56</v>
+      </c>
+      <c r="E31" s="7">
+        <v>92.96</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="7">
+        <v>7.04</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="9">
+        <v>72.510000000000005</v>
+      </c>
+      <c r="C32" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="D32" s="9">
+        <v>24.99</v>
+      </c>
+      <c r="E32" s="9">
+        <v>54.32</v>
+      </c>
+      <c r="F32" s="9">
+        <v>43.61</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7">
+        <v>81.96</v>
+      </c>
+      <c r="C33" s="7">
+        <v>-0.3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-6.07</v>
+      </c>
+      <c r="E33" s="7">
+        <v>99.42</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="9">
+        <v>40.99</v>
+      </c>
+      <c r="C34" s="9">
+        <v>27.42</v>
+      </c>
+      <c r="D34" s="9">
+        <v>21.68</v>
+      </c>
+      <c r="E34" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="F34" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="G34" s="9">
+        <v>69.11</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="7">
+        <v>78.14</v>
+      </c>
+      <c r="C35" s="7">
+        <v>-1.46</v>
+      </c>
+      <c r="D35" s="7">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="E35" s="7">
+        <v>87.45</v>
+      </c>
+      <c r="F35" s="7">
+        <v>11.81</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="9">
+        <v>65.69</v>
+      </c>
+      <c r="C36" s="9">
+        <v>9.42</v>
+      </c>
+      <c r="D36" s="9">
+        <v>28.01</v>
+      </c>
+      <c r="E36" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F36" s="9">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7">
+        <v>81.34</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-1.24</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="E37" s="7">
+        <v>95.89</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3.65</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36.1</v>
+      </c>
+      <c r="C38" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="D38" s="9">
+        <v>9.09</v>
+      </c>
+      <c r="E38" s="9">
+        <v>5.95</v>
+      </c>
+      <c r="F38" s="9">
+        <v>59.52</v>
+      </c>
+      <c r="G38" s="9">
+        <v>23.81</v>
+      </c>
+      <c r="H38" s="9">
+        <v>10.71</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="7">
+        <v>36.76</v>
+      </c>
+      <c r="C39" s="7">
+        <v>6.96</v>
+      </c>
+      <c r="D39" s="7">
+        <v>9.34</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5.85</v>
+      </c>
+      <c r="F39" s="7">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="G39" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="H39" s="7">
+        <v>9.75</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="9">
+        <v>71.02</v>
+      </c>
+      <c r="C40" s="9">
+        <v>-0.36</v>
+      </c>
+      <c r="D40" s="9">
+        <v>-1.28</v>
+      </c>
+      <c r="E40" s="9">
+        <v>94.59</v>
+      </c>
+      <c r="F40" s="9">
+        <v>3.68</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1.33</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="7">
+        <v>67.94</v>
+      </c>
+      <c r="C41" s="7">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="E41" s="7">
+        <v>93.37</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5.48</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="9">
+        <v>54.29</v>
+      </c>
+      <c r="C42" s="9">
+        <v>-6.84</v>
+      </c>
+      <c r="D42" s="9">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E42" s="9">
+        <v>42.58</v>
+      </c>
+      <c r="F42" s="9">
+        <v>48.14</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>3.54</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PCM_DB.xlsx
+++ b/PCM_DB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>샘플명</t>
   </si>
@@ -230,6 +230,38 @@
   </si>
   <si>
     <t>GREEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRAY(K25B003)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAL5005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3B 4.1/4.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tn726</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.25yr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5pb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHITE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHITE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -368,6 +400,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -701,11 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2242,6 +2277,321 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="7">
+        <v>64.3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>-1.41</v>
+      </c>
+      <c r="D43" s="7">
+        <v>-3.33</v>
+      </c>
+      <c r="E43" s="7">
+        <v>92.09</v>
+      </c>
+      <c r="F43" s="7">
+        <v>4.4889999999999999</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="7">
+        <v>3.37</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="9">
+        <v>33.18</v>
+      </c>
+      <c r="C44" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="D44" s="9">
+        <v>-28.2</v>
+      </c>
+      <c r="E44" s="9">
+        <v>17.73</v>
+      </c>
+      <c r="F44" s="9">
+        <v>8.99</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="I44" s="9">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="7">
+        <v>42.2</v>
+      </c>
+      <c r="C45" s="7">
+        <v>-12.28</v>
+      </c>
+      <c r="D45" s="7">
+        <v>-14.95</v>
+      </c>
+      <c r="E45" s="7">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="F45" s="7">
+        <v>8.23</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="I45" s="7">
+        <v>38.54</v>
+      </c>
+      <c r="J45" s="7">
+        <v>21.1</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="9">
+        <v>52.88</v>
+      </c>
+      <c r="C46" s="9">
+        <v>-7.3</v>
+      </c>
+      <c r="D46" s="9">
+        <v>-9.64</v>
+      </c>
+      <c r="E46" s="9">
+        <v>74.56</v>
+      </c>
+      <c r="F46" s="9">
+        <v>5.84</v>
+      </c>
+      <c r="G46" s="9">
+        <v>3.33</v>
+      </c>
+      <c r="H46" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I46" s="9">
+        <v>11.37</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="7">
+        <v>60.4</v>
+      </c>
+      <c r="C47" s="7">
+        <v>11.53</v>
+      </c>
+      <c r="D47" s="7">
+        <v>19.3</v>
+      </c>
+      <c r="E47" s="7">
+        <v>54.6</v>
+      </c>
+      <c r="F47" s="7">
+        <v>46.47</v>
+      </c>
+      <c r="G47" s="7">
+        <v>6.56</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1.37</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="9">
+        <v>50.81</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1.98</v>
+      </c>
+      <c r="E48" s="9">
+        <v>95.89</v>
+      </c>
+      <c r="F48" s="9">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="7">
+        <v>88.65</v>
+      </c>
+      <c r="C49" s="7">
+        <v>-0.88</v>
+      </c>
+      <c r="D49" s="7">
+        <v>5.33</v>
+      </c>
+      <c r="E49" s="7">
+        <v>95.75</v>
+      </c>
+      <c r="F49" s="7">
+        <v>4.21</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>3041</v>
+      </c>
+      <c r="B50" s="9">
+        <v>88.13</v>
+      </c>
+      <c r="C50" s="9">
+        <v>-0.97</v>
+      </c>
+      <c r="D50" s="9">
+        <v>3.44</v>
+      </c>
+      <c r="E50" s="9">
+        <v>98.48</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="7">
+        <v>88.38</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="D51" s="7">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E51" s="7">
+        <v>97.93</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
